--- a/CartaGantt.xlsx
+++ b/CartaGantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Proyecto - Inteligencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{3ACD7C53-473F-124A-AA17-DB16F0DC868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74586F81-CC48-3648-9483-E15A2E37CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,7 +796,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1088,22 +1088,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1115,26 +1122,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1736,7 +1735,7 @@
   <dimension ref="A1:BL34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1762,29 +1761,29 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="113">
+      <c r="Q1" s="116">
         <f>DATE(2023,9,22)</f>
         <v>45191</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="95" t="s">
@@ -1796,37 +1795,37 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="111">
+      <c r="Q2" s="114">
         <v>5</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="122" t="s">
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
@@ -1842,102 +1841,102 @@
         <v>22</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="118">
+      <c r="I4" s="111">
         <f>I5</f>
         <v>45215</v>
       </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109">
         <f>P5</f>
         <v>45222</v>
       </c>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116">
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109">
         <f>W5</f>
         <v>45229</v>
       </c>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116">
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109">
         <f>AD5</f>
         <v>45236</v>
       </c>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116">
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109">
         <f>AK5</f>
         <v>45243</v>
       </c>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116">
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109">
         <f>AR5</f>
         <v>45250</v>
       </c>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116">
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109">
         <f>AY5</f>
         <v>45257</v>
       </c>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116">
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109">
         <f>BF5</f>
         <v>45264</v>
       </c>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="117"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="110"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="119"/>
+      <c r="B5" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="112" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="31">
@@ -2166,12 +2165,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="105"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="I6" s="34" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -2864,7 +2863,7 @@
     </row>
     <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="105" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="48" t="s">
@@ -3284,14 +3283,14 @@
     </row>
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="120" t="s">
+      <c r="B19" s="106" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="63">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="E19" s="64">
         <f>E18</f>
@@ -3436,14 +3435,14 @@
     </row>
     <row r="21" spans="1:64" s="46" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="107" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="72" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="74">
         <f>F19</f>
@@ -3517,14 +3516,14 @@
     </row>
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="73">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E22" s="74">
         <f>F21+1</f>
@@ -3598,14 +3597,14 @@
     </row>
     <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="72" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="73">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="E23" s="74">
         <f>F22</f>
@@ -3760,7 +3759,7 @@
     </row>
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="107" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="72" t="s">
@@ -4305,6 +4304,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4313,16 +4322,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D31">
     <cfRule type="dataBar" priority="23">
@@ -4553,35 +4552,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4893,34 +4863,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4941,6 +4913,33 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/CartaGantt.xlsx
+++ b/CartaGantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Proyecto - Inteligencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74586F81-CC48-3648-9483-E15A2E37CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00B470A-4331-9F44-90E5-3A05746CB65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,19 +1098,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1122,17 +1125,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1734,8 +1734,8 @@
   </sheetPr>
   <dimension ref="A1:BL34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1761,29 +1761,29 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="117" t="s">
+      <c r="I1" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="116">
+      <c r="Q1" s="117">
         <f>DATE(2023,9,22)</f>
         <v>45191</v>
       </c>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="95" t="s">
@@ -1795,28 +1795,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="117" t="s">
+      <c r="I2" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="114">
+      <c r="Q2" s="115">
         <v>5</v>
       </c>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
       <c r="AA2" s="108" t="s">
         <v>47</v>
       </c>
@@ -1841,102 +1841,102 @@
         <v>22</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="I4" s="111">
+      <c r="I4" s="122">
         <f>I5</f>
         <v>45215</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109">
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120">
         <f>P5</f>
         <v>45222</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109">
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120">
         <f>W5</f>
         <v>45229</v>
       </c>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109">
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120">
         <f>AD5</f>
         <v>45236</v>
       </c>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="109">
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120">
         <f>AK5</f>
         <v>45243</v>
       </c>
-      <c r="AL4" s="109"/>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109">
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="120"/>
+      <c r="AO4" s="120"/>
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120">
         <f>AR5</f>
         <v>45250</v>
       </c>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109">
+      <c r="AS4" s="120"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="120"/>
+      <c r="AW4" s="120"/>
+      <c r="AX4" s="120"/>
+      <c r="AY4" s="120">
         <f>AY5</f>
         <v>45257</v>
       </c>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="109"/>
-      <c r="BE4" s="109"/>
-      <c r="BF4" s="109">
+      <c r="AZ4" s="120"/>
+      <c r="BA4" s="120"/>
+      <c r="BB4" s="120"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="120"/>
+      <c r="BE4" s="120"/>
+      <c r="BF4" s="120">
         <f>BF5</f>
         <v>45264</v>
       </c>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="109"/>
-      <c r="BI4" s="109"/>
-      <c r="BJ4" s="109"/>
-      <c r="BK4" s="109"/>
-      <c r="BL4" s="110"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="120"/>
+      <c r="BI4" s="120"/>
+      <c r="BJ4" s="120"/>
+      <c r="BK4" s="120"/>
+      <c r="BL4" s="121"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="119"/>
-      <c r="B5" s="120" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="114" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="31">
@@ -2165,8 +2165,8 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
       <c r="E6" s="113"/>
@@ -3523,7 +3523,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="73">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E22" s="74">
         <f>F21+1</f>
@@ -3604,7 +3604,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="73">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="E23" s="74">
         <f>F22</f>
@@ -3685,7 +3685,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="74">
         <f>F23</f>
@@ -3766,7 +3766,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="74">
         <f>F24</f>
@@ -3918,7 +3918,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="84">
         <f>F25</f>
@@ -3999,7 +3999,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="84">
         <f>F27-2</f>
@@ -4080,7 +4080,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="84">
         <f>F27</f>
@@ -4304,16 +4304,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4322,6 +4312,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D31">
     <cfRule type="dataBar" priority="23">
@@ -4552,6 +4552,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4863,36 +4892,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A09426A3-87E9-4865-8A6C-3456B026AE03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4913,33 +4940,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>